--- a/[TEC]/#15 PARCIAL 2/Hamming.xlsx
+++ b/[TEC]/#15 PARCIAL 2/Hamming.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="10111" sheetId="1" r:id="rId1"/>
+    <sheet name="10011" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="M_de_fórmula">Hoja1!$B$3</definedName>
+    <definedName name="M_de_fórmula" localSheetId="1">'10011'!$B$3</definedName>
+    <definedName name="M_de_fórmula">'10111'!$B$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Dig</t>
   </si>
@@ -177,13 +177,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,90 +438,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,17 +530,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,18 +856,18 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="12" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.5">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -888,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -906,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -933,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.5">
       <c r="G4" s="2">
         <v>3</v>
       </c>
@@ -950,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="29.25" thickBot="1">
       <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
@@ -978,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="29.25" thickTop="1">
       <c r="A6" s="20" t="str">
         <f t="shared" ref="A6:A8" si="1">IF(D6&gt;=C6,"CUMPLE LA CONDICIÓN ►","")</f>
         <v/>
@@ -1012,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.5">
       <c r="A7" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1046,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.5">
       <c r="A8" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1080,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28.5">
       <c r="A9" s="20" t="str">
         <f>IF(D9&gt;=C9,"CUMPLE LA CONDICIÓN ►","")</f>
         <v>CUMPLE LA CONDICIÓN ►</v>
@@ -1116,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.5">
       <c r="A10" s="20" t="str">
         <f t="shared" ref="A10" si="3">IF(D10&gt;=C10,"CUMPLE LA CONDICIÓN ►","")</f>
         <v>CUMPLE LA CONDICIÓN ►</v>
@@ -1152,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75">
       <c r="C13" s="29" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75">
       <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
       <c r="C15" s="30" t="s">
         <v>11</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19.5" thickTop="1">
       <c r="C16" s="19" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="24">
-        <f t="shared" ref="E16:L16" si="6">E14+E15</f>
+        <f t="shared" ref="E16:K16" si="6">E14+E15</f>
         <v>1</v>
       </c>
       <c r="F16" s="24">
@@ -1290,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" ht="18.75">
       <c r="C19" s="19" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="62.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" ht="62.25">
       <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:13" ht="28.5">
       <c r="C21" s="19" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="33">
-        <f t="shared" ref="E21:L21" si="9">IF(E20=TRUE,0,E13)</f>
+        <f t="shared" ref="E21:K21" si="9">IF(E20=TRUE,0,E13)</f>
         <v>2</v>
       </c>
       <c r="F21" s="33"/>
@@ -1384,13 +1394,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13">
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13">
       <c r="C24" s="19"/>
     </row>
   </sheetData>
@@ -1402,24 +1412,564 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="12" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.5">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="21" t="str">
+        <f>DEC2BIN(C1)</f>
+        <v>10011</v>
+      </c>
+      <c r="C1" s="13">
+        <f>BIN2DEC(D1)</f>
+        <v>19</v>
+      </c>
+      <c r="D1" s="35">
+        <v>10011</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>DEC2BIN(G2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <f>LEN(B1)</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H10" si="0">DEC2BIN(G3)</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.5">
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29.25" thickBot="1">
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29.25" thickTop="1">
+      <c r="A6" s="20" t="str">
+        <f t="shared" ref="A6:A8" si="1">IF(D6&gt;=C6,"CUMPLE LA CONDICIÓN ►","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <f>M_de_fórmula+B6+1</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="17">
+        <f>2^B6</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.5">
+      <c r="A7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <f>M_de_fórmula+B7+1</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7:D10" si="2">2^B7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.5">
+      <c r="A8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18">
+        <f>M_de_fórmula+B8+1</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.5">
+      <c r="A9" s="20" t="str">
+        <f>IF(D9&gt;=C9,"CUMPLE LA CONDICIÓN ►","")</f>
+        <v>CUMPLE LA CONDICIÓN ►</v>
+      </c>
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18">
+        <f>M_de_fórmula+B9+1</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="10">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.5">
+      <c r="A10" s="20" t="str">
+        <f t="shared" ref="A10" si="3">IF(D10&gt;=C10,"CUMPLE LA CONDICIÓN ►","")</f>
+        <v>CUMPLE LA CONDICIÓN ►</v>
+      </c>
+      <c r="B10" s="17">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18">
+        <f>M_de_fórmula+B10+1</f>
+        <v>11</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75">
+      <c r="C13" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>2</v>
+      </c>
+      <c r="F13" s="26">
+        <v>3</v>
+      </c>
+      <c r="G13" s="26">
+        <v>4</v>
+      </c>
+      <c r="H13" s="26">
+        <v>5</v>
+      </c>
+      <c r="I13" s="26">
+        <v>6</v>
+      </c>
+      <c r="J13" s="26">
+        <v>7</v>
+      </c>
+      <c r="K13" s="26">
+        <v>8</v>
+      </c>
+      <c r="L13" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="25">
+        <f>IF(ISEVEN(F14+H14+J14+L14),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <f>IF(ISEVEN(F14+I14+J14),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <f>F15</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <f>IF(ISEVEN(H14+I14+J14),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" ref="H14:L14" si="4">H15</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="25">
+        <f>IF(ISEVEN(L14),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
+      <c r="C15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <v>1</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickTop="1">
+      <c r="C16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="24">
+        <f>D14+D15</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" ref="E16:K16" si="5">E14+E15</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <f>F15</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" ref="H16:L16" si="6">H15</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="18.75">
+      <c r="C19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="24">
+        <f>D16</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" ref="E19:L19" si="7">E16</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="62.25">
+      <c r="C20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="32" t="b">
+        <f>IF(ISEVEN(D19+F19+H19+J19+L19),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="32" t="b">
+        <f>IF(ISEVEN(E19+F19+I19+J19),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="32" t="b">
+        <f>IF(ISEVEN(G19+H19+I19+J19),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="32" t="b">
+        <f>IF(ISEVEN(K19+L19),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="28.5">
+      <c r="C21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="33">
+        <f>IF(D20=TRUE,0,D13)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" ref="E21:K21" si="8">IF(E20=TRUE,0,E13)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34">
+        <f>SUM(D21:L21)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="19"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/[TEC]/#15 PARCIAL 2/Hamming.xlsx
+++ b/[TEC]/#15 PARCIAL 2/Hamming.xlsx
@@ -1417,7 +1417,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
